--- a/data/pca/factorExposure/factorExposure_2012-03-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01342319484131864</v>
+        <v>0.01484519046262025</v>
       </c>
       <c r="C2">
-        <v>-0.03129846075125405</v>
+        <v>-0.02688329565446284</v>
       </c>
       <c r="D2">
-        <v>0.002653977566907992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.005156402010227218</v>
+      </c>
+      <c r="E2">
+        <v>0.009648798065517838</v>
+      </c>
+      <c r="F2">
+        <v>-0.0116811251103011</v>
+      </c>
+      <c r="G2">
+        <v>-0.01648313753895955</v>
+      </c>
+      <c r="H2">
+        <v>-0.05108917905564018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07216782603840981</v>
+        <v>0.08711177777508533</v>
       </c>
       <c r="C4">
-        <v>-0.05033595509950409</v>
+        <v>-0.0368888289407257</v>
       </c>
       <c r="D4">
-        <v>0.0820814066982213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06515373660826179</v>
+      </c>
+      <c r="E4">
+        <v>0.01547145307547757</v>
+      </c>
+      <c r="F4">
+        <v>-0.03075282506688924</v>
+      </c>
+      <c r="G4">
+        <v>-0.00380319191965119</v>
+      </c>
+      <c r="H4">
+        <v>0.04003128549416884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.106760544707986</v>
+        <v>0.1189846302774449</v>
       </c>
       <c r="C6">
-        <v>-0.05561225611590764</v>
+        <v>-0.03483941760493407</v>
       </c>
       <c r="D6">
-        <v>-0.0023465957385262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01202475015273312</v>
+      </c>
+      <c r="E6">
+        <v>-0.00142331976285913</v>
+      </c>
+      <c r="F6">
+        <v>-0.05140281463746438</v>
+      </c>
+      <c r="G6">
+        <v>-0.03360427847582106</v>
+      </c>
+      <c r="H6">
+        <v>-0.1082807768910654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04894632768310952</v>
+        <v>0.0636770285262848</v>
       </c>
       <c r="C7">
-        <v>-0.02864743898921898</v>
+        <v>-0.02033589968273555</v>
       </c>
       <c r="D7">
-        <v>0.04553746986470713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0455056810996327</v>
+      </c>
+      <c r="E7">
+        <v>0.03712259426250673</v>
+      </c>
+      <c r="F7">
+        <v>-0.03405514460291812</v>
+      </c>
+      <c r="G7">
+        <v>0.03638167674653045</v>
+      </c>
+      <c r="H7">
+        <v>0.003623606480877224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04008223373777822</v>
+        <v>0.04223245926742324</v>
       </c>
       <c r="C8">
-        <v>-0.01389541983800983</v>
+        <v>-0.008311774797753298</v>
       </c>
       <c r="D8">
-        <v>0.053150387117821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02143212497199627</v>
+      </c>
+      <c r="E8">
+        <v>0.03577746445480578</v>
+      </c>
+      <c r="F8">
+        <v>-0.0511162664949984</v>
+      </c>
+      <c r="G8">
+        <v>-0.05752643404992905</v>
+      </c>
+      <c r="H8">
+        <v>-0.007628323921839023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06656959646934262</v>
+        <v>0.07835168926494922</v>
       </c>
       <c r="C9">
-        <v>-0.0419776918760277</v>
+        <v>-0.02766760242722367</v>
       </c>
       <c r="D9">
-        <v>0.07191295162452128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06430759055859353</v>
+      </c>
+      <c r="E9">
+        <v>0.04031202712351842</v>
+      </c>
+      <c r="F9">
+        <v>-0.02887081173436681</v>
+      </c>
+      <c r="G9">
+        <v>-0.005939553109340618</v>
+      </c>
+      <c r="H9">
+        <v>0.04455281555012185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02839770391240984</v>
+        <v>0.0338886987175616</v>
       </c>
       <c r="C10">
-        <v>-0.03358799658038832</v>
+        <v>-0.04414278896746263</v>
       </c>
       <c r="D10">
-        <v>-0.1794496327923871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1740669756365218</v>
+      </c>
+      <c r="E10">
+        <v>0.05090583276552661</v>
+      </c>
+      <c r="F10">
+        <v>-0.04456765018260668</v>
+      </c>
+      <c r="G10">
+        <v>0.02836992295306856</v>
+      </c>
+      <c r="H10">
+        <v>-0.04659655922864221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07044740406187425</v>
+        <v>0.07642271578034375</v>
       </c>
       <c r="C11">
-        <v>-0.04811000733588287</v>
+        <v>-0.02751418706915846</v>
       </c>
       <c r="D11">
-        <v>0.05530864350948633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06272110093489663</v>
+      </c>
+      <c r="E11">
+        <v>-0.0008147005082990164</v>
+      </c>
+      <c r="F11">
+        <v>-0.0284247845014973</v>
+      </c>
+      <c r="G11">
+        <v>0.006957757949166676</v>
+      </c>
+      <c r="H11">
+        <v>0.08243060139840885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05815578759593461</v>
+        <v>0.06752849536367353</v>
       </c>
       <c r="C12">
-        <v>-0.05265941992350688</v>
+        <v>-0.03718489328118627</v>
       </c>
       <c r="D12">
-        <v>0.04263133322321463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04825648711926493</v>
+      </c>
+      <c r="E12">
+        <v>0.01396260990015829</v>
+      </c>
+      <c r="F12">
+        <v>-0.02049307613743039</v>
+      </c>
+      <c r="G12">
+        <v>-0.001176155288678945</v>
+      </c>
+      <c r="H12">
+        <v>0.03944224563568132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05997159517020385</v>
+        <v>0.06520179018117481</v>
       </c>
       <c r="C13">
-        <v>-0.04035008049267598</v>
+        <v>-0.02538178247460988</v>
       </c>
       <c r="D13">
-        <v>0.06015235250735822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04294779921434917</v>
+      </c>
+      <c r="E13">
+        <v>0.01694738529926372</v>
+      </c>
+      <c r="F13">
+        <v>-0.00627745193969044</v>
+      </c>
+      <c r="G13">
+        <v>0.009890675718877927</v>
+      </c>
+      <c r="H13">
+        <v>0.03697840566588854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03312912118216474</v>
+        <v>0.04090595335108545</v>
       </c>
       <c r="C14">
-        <v>-0.03173989720342411</v>
+        <v>-0.02723272010295475</v>
       </c>
       <c r="D14">
-        <v>0.000323518321498474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.007162080829465209</v>
+      </c>
+      <c r="E14">
+        <v>0.03071762641968221</v>
+      </c>
+      <c r="F14">
+        <v>-0.01074272044937611</v>
+      </c>
+      <c r="G14">
+        <v>-0.003755763760512417</v>
+      </c>
+      <c r="H14">
+        <v>0.05753523511848912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04027033777020596</v>
+        <v>0.04008868836790607</v>
       </c>
       <c r="C15">
-        <v>-0.01158842354574595</v>
+        <v>-0.003698126770836686</v>
       </c>
       <c r="D15">
-        <v>0.01815197348654377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.004407339781039013</v>
+      </c>
+      <c r="E15">
+        <v>0.04177794189431099</v>
+      </c>
+      <c r="F15">
+        <v>0.008028418804468383</v>
+      </c>
+      <c r="G15">
+        <v>-0.02446608869963223</v>
+      </c>
+      <c r="H15">
+        <v>0.03684150242263173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0604040160146598</v>
+        <v>0.0703611562275105</v>
       </c>
       <c r="C16">
-        <v>-0.04305518441683221</v>
+        <v>-0.02802579675412813</v>
       </c>
       <c r="D16">
-        <v>0.04548556766396183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06196556172827268</v>
+      </c>
+      <c r="E16">
+        <v>0.007537660166971501</v>
+      </c>
+      <c r="F16">
+        <v>-0.02496340992925259</v>
+      </c>
+      <c r="G16">
+        <v>0.004796480564075627</v>
+      </c>
+      <c r="H16">
+        <v>0.04984639338611504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06264605914780061</v>
+        <v>0.06371738970740853</v>
       </c>
       <c r="C20">
-        <v>-0.02991537818851063</v>
+        <v>-0.01280717296216682</v>
       </c>
       <c r="D20">
-        <v>0.05049278901521295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03860408338492659</v>
+      </c>
+      <c r="E20">
+        <v>0.03254532893078952</v>
+      </c>
+      <c r="F20">
+        <v>-0.01956083053467184</v>
+      </c>
+      <c r="G20">
+        <v>-0.01132280390180446</v>
+      </c>
+      <c r="H20">
+        <v>0.04087277391012467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0239246452434971</v>
+        <v>0.02553689089358021</v>
       </c>
       <c r="C21">
-        <v>0.002531684253511064</v>
+        <v>0.009543572123655628</v>
       </c>
       <c r="D21">
-        <v>0.02585458271247171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02811056648233898</v>
+      </c>
+      <c r="E21">
+        <v>0.03961065254604013</v>
+      </c>
+      <c r="F21">
+        <v>0.0154177702414431</v>
+      </c>
+      <c r="G21">
+        <v>-0.007508811521819857</v>
+      </c>
+      <c r="H21">
+        <v>-0.04615701278259248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07703541684118681</v>
+        <v>0.07265580796798174</v>
       </c>
       <c r="C22">
-        <v>-0.06036319174086242</v>
+        <v>-0.03891475094188304</v>
       </c>
       <c r="D22">
-        <v>0.1027103971359185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.07057084855491159</v>
+      </c>
+      <c r="E22">
+        <v>0.559670647998343</v>
+      </c>
+      <c r="F22">
+        <v>0.2530702874600091</v>
+      </c>
+      <c r="G22">
+        <v>0.0732940261022868</v>
+      </c>
+      <c r="H22">
+        <v>-0.1479244835957397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07801842916569329</v>
+        <v>0.07330580744131181</v>
       </c>
       <c r="C23">
-        <v>-0.05927407929425884</v>
+        <v>-0.03759536375919684</v>
       </c>
       <c r="D23">
-        <v>0.104290615382768</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.07140179037710143</v>
+      </c>
+      <c r="E23">
+        <v>0.5590732709762688</v>
+      </c>
+      <c r="F23">
+        <v>0.2516910708294275</v>
+      </c>
+      <c r="G23">
+        <v>0.07191879844317293</v>
+      </c>
+      <c r="H23">
+        <v>-0.1429527568102954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07048034354593778</v>
+        <v>0.0795869608778686</v>
       </c>
       <c r="C24">
-        <v>-0.0515378919055274</v>
+        <v>-0.03337091905978015</v>
       </c>
       <c r="D24">
-        <v>0.05852094970717079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06054983228884629</v>
+      </c>
+      <c r="E24">
+        <v>0.01858580582566901</v>
+      </c>
+      <c r="F24">
+        <v>-0.03362539385318284</v>
+      </c>
+      <c r="G24">
+        <v>-0.008888320163489564</v>
+      </c>
+      <c r="H24">
+        <v>0.0538056375147903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07060959218334689</v>
+        <v>0.07782025659179531</v>
       </c>
       <c r="C25">
-        <v>-0.05690681845537004</v>
+        <v>-0.03804443990875084</v>
       </c>
       <c r="D25">
-        <v>0.0660454093421991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0530119821193581</v>
+      </c>
+      <c r="E25">
+        <v>0.02215519996129012</v>
+      </c>
+      <c r="F25">
+        <v>-0.02377222062630291</v>
+      </c>
+      <c r="G25">
+        <v>-0.01665292684710684</v>
+      </c>
+      <c r="H25">
+        <v>0.05546921781112802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04505385362096639</v>
+        <v>0.04765911751132202</v>
       </c>
       <c r="C26">
-        <v>-0.01094031729370422</v>
+        <v>-0.002839398470127623</v>
       </c>
       <c r="D26">
-        <v>0.01268057278026202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01789922338464652</v>
+      </c>
+      <c r="E26">
+        <v>0.05351551059910615</v>
+      </c>
+      <c r="F26">
+        <v>-0.02045797721814416</v>
+      </c>
+      <c r="G26">
+        <v>0.009315351265993666</v>
+      </c>
+      <c r="H26">
+        <v>0.05083245145924113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05235628189333102</v>
+        <v>0.06199963347389863</v>
       </c>
       <c r="C28">
-        <v>-0.07610894245616093</v>
+        <v>-0.08845046821071323</v>
       </c>
       <c r="D28">
-        <v>-0.3127150329554139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3073193205723525</v>
+      </c>
+      <c r="E28">
+        <v>0.028097382343113</v>
+      </c>
+      <c r="F28">
+        <v>-0.05339225835274734</v>
+      </c>
+      <c r="G28">
+        <v>-0.0345488203775097</v>
+      </c>
+      <c r="H28">
+        <v>-0.04410172536548672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0402206009702757</v>
+        <v>0.04853720754089374</v>
       </c>
       <c r="C29">
-        <v>-0.03119886740921614</v>
+        <v>-0.02607054861547915</v>
       </c>
       <c r="D29">
-        <v>0.003723064715721422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.006725774729584568</v>
+      </c>
+      <c r="E29">
+        <v>0.05328920722676496</v>
+      </c>
+      <c r="F29">
+        <v>-0.000970627227535127</v>
+      </c>
+      <c r="G29">
+        <v>0.011739982535212</v>
+      </c>
+      <c r="H29">
+        <v>0.07798367313310968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.124037360154117</v>
+        <v>0.1311478321156263</v>
       </c>
       <c r="C30">
-        <v>-0.09334176414998549</v>
+        <v>-0.06379447027377513</v>
       </c>
       <c r="D30">
-        <v>0.1156659393300089</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06963255547087262</v>
+      </c>
+      <c r="E30">
+        <v>0.08857453183479201</v>
+      </c>
+      <c r="F30">
+        <v>0.02811045337727189</v>
+      </c>
+      <c r="G30">
+        <v>-0.07776899832049003</v>
+      </c>
+      <c r="H30">
+        <v>-0.04419908734308829</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04238354020145744</v>
+        <v>0.0484946803697061</v>
       </c>
       <c r="C31">
-        <v>-0.02297793346157632</v>
+        <v>-0.01448841731761847</v>
       </c>
       <c r="D31">
-        <v>0.02635202946723947</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02696686597143835</v>
+      </c>
+      <c r="E31">
+        <v>0.02683687141904291</v>
+      </c>
+      <c r="F31">
+        <v>-0.008876772602855664</v>
+      </c>
+      <c r="G31">
+        <v>0.03042339744936991</v>
+      </c>
+      <c r="H31">
+        <v>0.06199893102747357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03782904816584298</v>
+        <v>0.03841932361316432</v>
       </c>
       <c r="C32">
-        <v>-0.02586217032629206</v>
+        <v>-0.01797201522740937</v>
       </c>
       <c r="D32">
-        <v>0.02539055309066714</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01358039748389878</v>
+      </c>
+      <c r="E32">
+        <v>0.06642074064107294</v>
+      </c>
+      <c r="F32">
+        <v>0.02050988417453127</v>
+      </c>
+      <c r="G32">
+        <v>-0.02321548706127205</v>
+      </c>
+      <c r="H32">
+        <v>0.07083565757093405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0829615475180181</v>
+        <v>0.09610322335242931</v>
       </c>
       <c r="C33">
-        <v>-0.04401474428085231</v>
+        <v>-0.0268452801070375</v>
       </c>
       <c r="D33">
-        <v>0.06350894773633478</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04771890698514591</v>
+      </c>
+      <c r="E33">
+        <v>0.01458269254717318</v>
+      </c>
+      <c r="F33">
+        <v>-0.005090543042100085</v>
+      </c>
+      <c r="G33">
+        <v>0.006864982860886981</v>
+      </c>
+      <c r="H33">
+        <v>0.05359505502906015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05571872369287855</v>
+        <v>0.06225916308696262</v>
       </c>
       <c r="C34">
-        <v>-0.02811759741631078</v>
+        <v>-0.01376446456170975</v>
       </c>
       <c r="D34">
-        <v>0.05719321904483966</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05441708258569444</v>
+      </c>
+      <c r="E34">
+        <v>0.009630299060027131</v>
+      </c>
+      <c r="F34">
+        <v>-0.01708238446727275</v>
+      </c>
+      <c r="G34">
+        <v>0.001953112246871839</v>
+      </c>
+      <c r="H34">
+        <v>0.05516370207109568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03622924128454275</v>
+        <v>0.03940939758445883</v>
       </c>
       <c r="C35">
-        <v>-0.008580428465113647</v>
+        <v>-0.003523783270342136</v>
       </c>
       <c r="D35">
-        <v>0.007660285226608224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.00828514311826989</v>
+      </c>
+      <c r="E35">
+        <v>0.01775343209385192</v>
+      </c>
+      <c r="F35">
+        <v>0.01694610143019039</v>
+      </c>
+      <c r="G35">
+        <v>0.01339316010650797</v>
+      </c>
+      <c r="H35">
+        <v>0.01684368968248328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02132129607545123</v>
+        <v>0.02851916921030159</v>
       </c>
       <c r="C36">
-        <v>-0.01707469568722863</v>
+        <v>-0.01385888899905038</v>
       </c>
       <c r="D36">
-        <v>0.02193331178932717</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01498537599838677</v>
+      </c>
+      <c r="E36">
+        <v>0.04369762030994318</v>
+      </c>
+      <c r="F36">
+        <v>-0.01234104829577713</v>
+      </c>
+      <c r="G36">
+        <v>0.01052216112642838</v>
+      </c>
+      <c r="H36">
+        <v>0.0430015316478973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04030733851338897</v>
+        <v>0.04483964432861567</v>
       </c>
       <c r="C38">
-        <v>-0.004674408773724508</v>
+        <v>0.0006171516755539472</v>
       </c>
       <c r="D38">
-        <v>0.01739965480300927</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01693316312406575</v>
+      </c>
+      <c r="E38">
+        <v>0.05296923021902113</v>
+      </c>
+      <c r="F38">
+        <v>0.01442276240309127</v>
+      </c>
+      <c r="G38">
+        <v>-0.006193372340078198</v>
+      </c>
+      <c r="H38">
+        <v>0.03038388318067792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09002746980526055</v>
+        <v>0.102065844343519</v>
       </c>
       <c r="C39">
-        <v>-0.07352332638832512</v>
+        <v>-0.05146368146536373</v>
       </c>
       <c r="D39">
-        <v>0.05766148526852913</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06020847926655148</v>
+      </c>
+      <c r="E39">
+        <v>0.0006838056928639393</v>
+      </c>
+      <c r="F39">
+        <v>-0.002966701647451753</v>
+      </c>
+      <c r="G39">
+        <v>-0.02941069148323386</v>
+      </c>
+      <c r="H39">
+        <v>0.04724350847741243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07317018529170617</v>
+        <v>0.07090525028841063</v>
       </c>
       <c r="C40">
-        <v>-0.0406442655369645</v>
+        <v>-0.02008506147428656</v>
       </c>
       <c r="D40">
-        <v>-0.002771941666462335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01162442724941593</v>
+      </c>
+      <c r="E40">
+        <v>0.01932686135825846</v>
+      </c>
+      <c r="F40">
+        <v>0.05658418973778245</v>
+      </c>
+      <c r="G40">
+        <v>-0.05598943026419754</v>
+      </c>
+      <c r="H40">
+        <v>-0.1033108239444932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04059022717553665</v>
+        <v>0.04355619983970763</v>
       </c>
       <c r="C41">
-        <v>-0.005638232431746135</v>
+        <v>0.001989342721200721</v>
       </c>
       <c r="D41">
-        <v>0.03823000834571256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0346850941803083</v>
+      </c>
+      <c r="E41">
+        <v>0.003998403100498906</v>
+      </c>
+      <c r="F41">
+        <v>0.0140653474011941</v>
+      </c>
+      <c r="G41">
+        <v>-0.01021102036026572</v>
+      </c>
+      <c r="H41">
+        <v>0.03316734046345852</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04682833822801924</v>
+        <v>0.05796837277476444</v>
       </c>
       <c r="C43">
-        <v>-0.02619022840501438</v>
+        <v>-0.01838824997819475</v>
       </c>
       <c r="D43">
-        <v>0.02018685538202722</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02602694953925079</v>
+      </c>
+      <c r="E43">
+        <v>0.02065860847710055</v>
+      </c>
+      <c r="F43">
+        <v>-0.01193918699634572</v>
+      </c>
+      <c r="G43">
+        <v>0.01877116656340691</v>
+      </c>
+      <c r="H43">
+        <v>0.05300674613977948</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09094239122348394</v>
+        <v>0.09479814113396573</v>
       </c>
       <c r="C44">
-        <v>-0.09217061477109074</v>
+        <v>-0.0652324351574588</v>
       </c>
       <c r="D44">
-        <v>0.08400116451761742</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06005161634340682</v>
+      </c>
+      <c r="E44">
+        <v>0.09128193960074624</v>
+      </c>
+      <c r="F44">
+        <v>-0.03850110957915713</v>
+      </c>
+      <c r="G44">
+        <v>-0.02963100470143711</v>
+      </c>
+      <c r="H44">
+        <v>0.01577204611497385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02408762130396976</v>
+        <v>0.0332526661298275</v>
       </c>
       <c r="C46">
-        <v>-0.01381537123322153</v>
+        <v>-0.01145649687878813</v>
       </c>
       <c r="D46">
-        <v>0.02178251168564981</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03288444042094963</v>
+      </c>
+      <c r="E46">
+        <v>0.02885863068516666</v>
+      </c>
+      <c r="F46">
+        <v>-0.01236865128583316</v>
+      </c>
+      <c r="G46">
+        <v>0.005330410302754294</v>
+      </c>
+      <c r="H46">
+        <v>0.03833232992329702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02889013058882121</v>
+        <v>0.03765358234447812</v>
       </c>
       <c r="C47">
-        <v>-0.02419496218602162</v>
+        <v>-0.02041314319785185</v>
       </c>
       <c r="D47">
-        <v>0.01210724430287895</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01001201629269963</v>
+      </c>
+      <c r="E47">
+        <v>0.05117383036093599</v>
+      </c>
+      <c r="F47">
+        <v>-0.006657281486506929</v>
+      </c>
+      <c r="G47">
+        <v>0.04243194723851786</v>
+      </c>
+      <c r="H47">
+        <v>0.02324574523074548</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03220944655921866</v>
+        <v>0.03769504405812212</v>
       </c>
       <c r="C48">
-        <v>-0.01831228782449779</v>
+        <v>-0.01133484925652304</v>
       </c>
       <c r="D48">
-        <v>0.03054575375191485</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01934306546985743</v>
+      </c>
+      <c r="E48">
+        <v>0.04478374643927197</v>
+      </c>
+      <c r="F48">
+        <v>0.001328417475071151</v>
+      </c>
+      <c r="G48">
+        <v>-0.009892795702043593</v>
+      </c>
+      <c r="H48">
+        <v>0.0390415866759987</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1593911090246238</v>
+        <v>0.1879954671778312</v>
       </c>
       <c r="C49">
-        <v>-0.06278631027440289</v>
+        <v>-0.03748063879781919</v>
       </c>
       <c r="D49">
-        <v>-0.01360215932016761</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02915565902387215</v>
+      </c>
+      <c r="E49">
+        <v>-0.1451654808108513</v>
+      </c>
+      <c r="F49">
+        <v>-0.08217222819054587</v>
+      </c>
+      <c r="G49">
+        <v>0.04607226610866291</v>
+      </c>
+      <c r="H49">
+        <v>-0.2297734642875765</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03849835960785524</v>
+        <v>0.04600531849941349</v>
       </c>
       <c r="C50">
-        <v>-0.0258416968279195</v>
+        <v>-0.01872388299441982</v>
       </c>
       <c r="D50">
-        <v>0.03731408767030012</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03045252229071786</v>
+      </c>
+      <c r="E50">
+        <v>0.05096086001142363</v>
+      </c>
+      <c r="F50">
+        <v>-0.009235265497048954</v>
+      </c>
+      <c r="G50">
+        <v>0.02475006699582869</v>
+      </c>
+      <c r="H50">
+        <v>0.06094897989869773</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02598431968312984</v>
+        <v>0.02981314930397438</v>
       </c>
       <c r="C51">
-        <v>-0.009747594652148538</v>
+        <v>-0.004446072774600062</v>
       </c>
       <c r="D51">
-        <v>0.01641588822175451</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01394596938693808</v>
+      </c>
+      <c r="E51">
+        <v>0.01426928832607382</v>
+      </c>
+      <c r="F51">
+        <v>-0.01843308396097849</v>
+      </c>
+      <c r="G51">
+        <v>0.00263990362491737</v>
+      </c>
+      <c r="H51">
+        <v>-0.002523812855143343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1512781772123095</v>
+        <v>0.1622136502475665</v>
       </c>
       <c r="C53">
-        <v>-0.079856664232184</v>
+        <v>-0.05271846506850831</v>
       </c>
       <c r="D53">
-        <v>0.02583051538707504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01933868709964087</v>
+      </c>
+      <c r="E53">
+        <v>-0.02734171338257525</v>
+      </c>
+      <c r="F53">
+        <v>-0.02078606789562005</v>
+      </c>
+      <c r="G53">
+        <v>0.02631310480118935</v>
+      </c>
+      <c r="H53">
+        <v>0.1790832219540978</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05497068159387668</v>
+        <v>0.05806033002176942</v>
       </c>
       <c r="C54">
-        <v>-0.02678819370497661</v>
+        <v>-0.01509722898884897</v>
       </c>
       <c r="D54">
-        <v>0.02287034582757248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01759230076190434</v>
+      </c>
+      <c r="E54">
+        <v>0.05044775919620374</v>
+      </c>
+      <c r="F54">
+        <v>-0.003494452492669064</v>
+      </c>
+      <c r="G54">
+        <v>-0.009689782325961214</v>
+      </c>
+      <c r="H54">
+        <v>0.04509149362338163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09943566893983252</v>
+        <v>0.1036712948209936</v>
       </c>
       <c r="C55">
-        <v>-0.05517140483673898</v>
+        <v>-0.03485331011075278</v>
       </c>
       <c r="D55">
-        <v>0.02756723788556267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02326671280569598</v>
+      </c>
+      <c r="E55">
+        <v>0.01781932985694274</v>
+      </c>
+      <c r="F55">
+        <v>-0.0137046608966213</v>
+      </c>
+      <c r="G55">
+        <v>0.0218332913441873</v>
+      </c>
+      <c r="H55">
+        <v>0.15352455357408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1485406920027319</v>
+        <v>0.1618487146785699</v>
       </c>
       <c r="C56">
-        <v>-0.09257025202254468</v>
+        <v>-0.06467601654908493</v>
       </c>
       <c r="D56">
-        <v>0.02474716622844122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01979988384626467</v>
+      </c>
+      <c r="E56">
+        <v>-0.02553745479776624</v>
+      </c>
+      <c r="F56">
+        <v>-0.03732037092585439</v>
+      </c>
+      <c r="G56">
+        <v>0.0409055492316511</v>
+      </c>
+      <c r="H56">
+        <v>0.1786182140886561</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1282528309809812</v>
+        <v>0.09881081254090804</v>
       </c>
       <c r="C58">
-        <v>-0.008423068604023597</v>
+        <v>0.03657409024450388</v>
       </c>
       <c r="D58">
-        <v>0.02960977935617311</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.04206943869650376</v>
+      </c>
+      <c r="E58">
+        <v>0.1681417365184436</v>
+      </c>
+      <c r="F58">
+        <v>0.02270492595514438</v>
+      </c>
+      <c r="G58">
+        <v>0.03281410685202568</v>
+      </c>
+      <c r="H58">
+        <v>-0.2529254957722231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1203570249688704</v>
+        <v>0.1370955896249367</v>
       </c>
       <c r="C59">
-        <v>-0.08270160597004078</v>
+        <v>-0.08969207956605384</v>
       </c>
       <c r="D59">
-        <v>-0.3532434581935108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3631240089611187</v>
+      </c>
+      <c r="E59">
+        <v>0.02481429031013533</v>
+      </c>
+      <c r="F59">
+        <v>-0.01851739952659522</v>
+      </c>
+      <c r="G59">
+        <v>0.02373617579992266</v>
+      </c>
+      <c r="H59">
+        <v>-0.005533829572277271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2002791540597858</v>
+        <v>0.2323692164686954</v>
       </c>
       <c r="C60">
-        <v>-0.1048464067235346</v>
+        <v>-0.07000922405774773</v>
       </c>
       <c r="D60">
-        <v>0.01380694587054071</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04172598085431802</v>
+      </c>
+      <c r="E60">
+        <v>-0.09043657725845512</v>
+      </c>
+      <c r="F60">
+        <v>-0.07012407379761569</v>
+      </c>
+      <c r="G60">
+        <v>-0.0301030944262773</v>
+      </c>
+      <c r="H60">
+        <v>-0.1482592894185808</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07959533758863575</v>
+        <v>0.08885586611458327</v>
       </c>
       <c r="C61">
-        <v>-0.05320954040971797</v>
+        <v>-0.0377028069456128</v>
       </c>
       <c r="D61">
-        <v>0.04282801809775603</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04081941009440604</v>
+      </c>
+      <c r="E61">
+        <v>-0.00273544200393085</v>
+      </c>
+      <c r="F61">
+        <v>-0.003881432173107574</v>
+      </c>
+      <c r="G61">
+        <v>0.004623452574338794</v>
+      </c>
+      <c r="H61">
+        <v>0.06413788561768533</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1289065094067824</v>
+        <v>0.1392292950599821</v>
       </c>
       <c r="C62">
-        <v>-0.0667080145022064</v>
+        <v>-0.04070964583331194</v>
       </c>
       <c r="D62">
-        <v>0.0315482524094152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.03256835385329297</v>
+      </c>
+      <c r="E62">
+        <v>-0.06284674729858093</v>
+      </c>
+      <c r="F62">
+        <v>-0.01819063447582934</v>
+      </c>
+      <c r="G62">
+        <v>-0.003585693287978341</v>
+      </c>
+      <c r="H62">
+        <v>0.1976241676816585</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05067275020460539</v>
+        <v>0.05059454786140184</v>
       </c>
       <c r="C63">
-        <v>-0.02478793195025278</v>
+        <v>-0.01289668994716844</v>
       </c>
       <c r="D63">
-        <v>0.02249190350599985</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02069495751629444</v>
+      </c>
+      <c r="E63">
+        <v>0.05148864378783051</v>
+      </c>
+      <c r="F63">
+        <v>0.01648977912979393</v>
+      </c>
+      <c r="G63">
+        <v>-0.01995535104565387</v>
+      </c>
+      <c r="H63">
+        <v>0.05638221672407943</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1026680890699882</v>
+        <v>0.108016887657002</v>
       </c>
       <c r="C64">
-        <v>-0.02310147107911218</v>
+        <v>-0.004039125513012166</v>
       </c>
       <c r="D64">
-        <v>0.06060878248821769</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04025993892185256</v>
+      </c>
+      <c r="E64">
+        <v>0.04968535976550692</v>
+      </c>
+      <c r="F64">
+        <v>-0.04101436776593786</v>
+      </c>
+      <c r="G64">
+        <v>-0.0467528915914573</v>
+      </c>
+      <c r="H64">
+        <v>0.06198235989831884</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1212211425127133</v>
+        <v>0.1257110362514808</v>
       </c>
       <c r="C65">
-        <v>-0.06174095840429884</v>
+        <v>-0.03957850187170184</v>
       </c>
       <c r="D65">
-        <v>-0.01474439384867916</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.005032402165363821</v>
+      </c>
+      <c r="E65">
+        <v>0.01779651227751253</v>
+      </c>
+      <c r="F65">
+        <v>-0.04752748083026746</v>
+      </c>
+      <c r="G65">
+        <v>-0.06183498811770353</v>
+      </c>
+      <c r="H65">
+        <v>-0.1362381992896675</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1436082896506265</v>
+        <v>0.1548502581500891</v>
       </c>
       <c r="C66">
-        <v>-0.08016619069278619</v>
+        <v>-0.04891578652585003</v>
       </c>
       <c r="D66">
-        <v>0.1089354176542411</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09384529794789639</v>
+      </c>
+      <c r="E66">
+        <v>-0.03123296170107442</v>
+      </c>
+      <c r="F66">
+        <v>-0.01836280563398652</v>
+      </c>
+      <c r="G66">
+        <v>-0.04013242894138401</v>
+      </c>
+      <c r="H66">
+        <v>0.1195248357056637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07262706636637274</v>
+        <v>0.08428012646572108</v>
       </c>
       <c r="C67">
-        <v>-0.01523828939314788</v>
+        <v>-0.005573429208436717</v>
       </c>
       <c r="D67">
-        <v>0.02258049229466267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03032478123538433</v>
+      </c>
+      <c r="E67">
+        <v>0.02301170806061803</v>
+      </c>
+      <c r="F67">
+        <v>-0.01782552359303228</v>
+      </c>
+      <c r="G67">
+        <v>0.01261711567018501</v>
+      </c>
+      <c r="H67">
+        <v>0.03208145506087012</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05896729776468099</v>
+        <v>0.05727779807390568</v>
       </c>
       <c r="C68">
-        <v>-0.0520464919210344</v>
+        <v>-0.06026353833117411</v>
       </c>
       <c r="D68">
-        <v>-0.2515678282808904</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.268730712478255</v>
+      </c>
+      <c r="E68">
+        <v>0.03675944044340806</v>
+      </c>
+      <c r="F68">
+        <v>-0.01245411087097164</v>
+      </c>
+      <c r="G68">
+        <v>0.0156894697162841</v>
+      </c>
+      <c r="H68">
+        <v>0.00197774189863118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0518884486352133</v>
+        <v>0.05347294329600855</v>
       </c>
       <c r="C69">
-        <v>-0.01812274689519183</v>
+        <v>-0.00639361651798873</v>
       </c>
       <c r="D69">
-        <v>0.01833042899739135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01476233942261305</v>
+      </c>
+      <c r="E69">
+        <v>0.02345940278704114</v>
+      </c>
+      <c r="F69">
+        <v>0.00949402799278847</v>
+      </c>
+      <c r="G69">
+        <v>0.0224215169935748</v>
+      </c>
+      <c r="H69">
+        <v>0.04749316665068218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003677423304966597</v>
+        <v>0.02670447118613817</v>
       </c>
       <c r="C70">
-        <v>0.006439204786319768</v>
+        <v>0.0008077747899199401</v>
       </c>
       <c r="D70">
-        <v>-0.0001750547935367292</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.005648928789378584</v>
+      </c>
+      <c r="E70">
+        <v>-0.02065086408089177</v>
+      </c>
+      <c r="F70">
+        <v>-0.02046915083600789</v>
+      </c>
+      <c r="G70">
+        <v>0.02004612041744682</v>
+      </c>
+      <c r="H70">
+        <v>-0.03066275873851936</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05878290936159856</v>
+        <v>0.06015948728985555</v>
       </c>
       <c r="C71">
-        <v>-0.05251073089269308</v>
+        <v>-0.06476379195761493</v>
       </c>
       <c r="D71">
-        <v>-0.2923711535086755</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2948020193725365</v>
+      </c>
+      <c r="E71">
+        <v>0.03462131173815115</v>
+      </c>
+      <c r="F71">
+        <v>-0.04020338102964458</v>
+      </c>
+      <c r="G71">
+        <v>0.004999741500247423</v>
+      </c>
+      <c r="H71">
+        <v>0.007926820004137419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1411156337179708</v>
+        <v>0.1462927555270484</v>
       </c>
       <c r="C72">
-        <v>-0.06716633839295594</v>
+        <v>-0.03655471479719928</v>
       </c>
       <c r="D72">
-        <v>-0.006959395058475525</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008697279618744834</v>
+      </c>
+      <c r="E72">
+        <v>-0.1166975235870505</v>
+      </c>
+      <c r="F72">
+        <v>0.152454650948149</v>
+      </c>
+      <c r="G72">
+        <v>-0.1223251568307369</v>
+      </c>
+      <c r="H72">
+        <v>0.02134795971876071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2718448581483519</v>
+        <v>0.2868398785077126</v>
       </c>
       <c r="C73">
-        <v>-0.1128010559996037</v>
+        <v>-0.04686839743607137</v>
       </c>
       <c r="D73">
-        <v>0.05103027611692663</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.100637016337822</v>
+      </c>
+      <c r="E73">
+        <v>-0.206886309232427</v>
+      </c>
+      <c r="F73">
+        <v>-0.1280113699749684</v>
+      </c>
+      <c r="G73">
+        <v>0.1335531735227374</v>
+      </c>
+      <c r="H73">
+        <v>-0.4890140133952257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0782177321167645</v>
+        <v>0.09151567829391639</v>
       </c>
       <c r="C74">
-        <v>-0.07657888956068985</v>
+        <v>-0.05965574805269743</v>
       </c>
       <c r="D74">
-        <v>0.01457948878959531</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02924777052809432</v>
+      </c>
+      <c r="E74">
+        <v>-0.006335788250205514</v>
+      </c>
+      <c r="F74">
+        <v>-6.638290360837544e-05</v>
+      </c>
+      <c r="G74">
+        <v>0.06226401696545122</v>
+      </c>
+      <c r="H74">
+        <v>0.1160101972102263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09486618448074718</v>
+        <v>0.1005875149095537</v>
       </c>
       <c r="C75">
-        <v>-0.05480490290244249</v>
+        <v>-0.02980701265388367</v>
       </c>
       <c r="D75">
-        <v>0.01040783066130656</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0149306835616466</v>
+      </c>
+      <c r="E75">
+        <v>0.008731004073480908</v>
+      </c>
+      <c r="F75">
+        <v>-0.02526687394520814</v>
+      </c>
+      <c r="G75">
+        <v>0.02907600613936477</v>
+      </c>
+      <c r="H75">
+        <v>0.1156569272125974</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1291795146603401</v>
+        <v>0.1399424933977992</v>
       </c>
       <c r="C76">
-        <v>-0.08401932666890408</v>
+        <v>-0.05758013668478323</v>
       </c>
       <c r="D76">
-        <v>0.05602111651604232</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05081019568775134</v>
+      </c>
+      <c r="E76">
+        <v>0.02874383849661348</v>
+      </c>
+      <c r="F76">
+        <v>-0.04482970812166443</v>
+      </c>
+      <c r="G76">
+        <v>0.02526389794744432</v>
+      </c>
+      <c r="H76">
+        <v>0.2022267640950398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1130742288151409</v>
+        <v>0.1081854859311707</v>
       </c>
       <c r="C77">
-        <v>-0.0213722129082834</v>
+        <v>0.007749551948575687</v>
       </c>
       <c r="D77">
-        <v>0.05324403554806439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0208521093660001</v>
+      </c>
+      <c r="E77">
+        <v>0.05139962808652809</v>
+      </c>
+      <c r="F77">
+        <v>-0.1049404409085074</v>
+      </c>
+      <c r="G77">
+        <v>-0.8938971776680418</v>
+      </c>
+      <c r="H77">
+        <v>-0.06346320378095784</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1011022363549399</v>
+        <v>0.1408694739386198</v>
       </c>
       <c r="C78">
-        <v>-0.04239358162130583</v>
+        <v>-0.03513613168642663</v>
       </c>
       <c r="D78">
-        <v>0.0816408326304649</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08347002881357649</v>
+      </c>
+      <c r="E78">
+        <v>0.05751613768396566</v>
+      </c>
+      <c r="F78">
+        <v>-0.03700520143636532</v>
+      </c>
+      <c r="G78">
+        <v>-0.08925562932683699</v>
+      </c>
+      <c r="H78">
+        <v>-0.04986209661571767</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.146206728288469</v>
+        <v>0.1518828584417355</v>
       </c>
       <c r="C79">
-        <v>-0.07685941013648145</v>
+        <v>-0.04459873205813988</v>
       </c>
       <c r="D79">
-        <v>0.03186854284152011</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02755192330582639</v>
+      </c>
+      <c r="E79">
+        <v>-0.01472742881575668</v>
+      </c>
+      <c r="F79">
+        <v>-0.02127751904765227</v>
+      </c>
+      <c r="G79">
+        <v>0.0433772290741556</v>
+      </c>
+      <c r="H79">
+        <v>0.1758291595313745</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04498739186143969</v>
+        <v>0.04304732315521461</v>
       </c>
       <c r="C80">
-        <v>-0.01487546198545492</v>
+        <v>-0.005562140765161615</v>
       </c>
       <c r="D80">
-        <v>0.0275025103871196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01763233091570126</v>
+      </c>
+      <c r="E80">
+        <v>-0.01249104658630747</v>
+      </c>
+      <c r="F80">
+        <v>0.0001664440826013505</v>
+      </c>
+      <c r="G80">
+        <v>0.03030040646630885</v>
+      </c>
+      <c r="H80">
+        <v>0.03167381199861607</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1147980829138275</v>
+        <v>0.1206784548203187</v>
       </c>
       <c r="C81">
-        <v>-0.06431151782551149</v>
+        <v>-0.03813342073861452</v>
       </c>
       <c r="D81">
-        <v>0.03227104048236254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02278865500275836</v>
+      </c>
+      <c r="E81">
+        <v>0.02272768661305276</v>
+      </c>
+      <c r="F81">
+        <v>-0.01608071771216545</v>
+      </c>
+      <c r="G81">
+        <v>0.06615340257730556</v>
+      </c>
+      <c r="H81">
+        <v>0.1467428084860862</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.129775873767312</v>
+        <v>0.1312085625571838</v>
       </c>
       <c r="C82">
-        <v>-0.08019698425865524</v>
+        <v>-0.05185896414771751</v>
       </c>
       <c r="D82">
-        <v>0.0213176550649004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0276090067174017</v>
+      </c>
+      <c r="E82">
+        <v>-0.01242278500904631</v>
+      </c>
+      <c r="F82">
+        <v>-0.05745645531506988</v>
+      </c>
+      <c r="G82">
+        <v>0.06061843109889336</v>
+      </c>
+      <c r="H82">
+        <v>0.2153691697925263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07446500126993508</v>
+        <v>0.08620078673220147</v>
       </c>
       <c r="C83">
-        <v>0.01141832194827399</v>
+        <v>0.024964569325431</v>
       </c>
       <c r="D83">
-        <v>0.02358888584063527</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03066226713902525</v>
+      </c>
+      <c r="E83">
+        <v>0.02348891836963003</v>
+      </c>
+      <c r="F83">
+        <v>-0.05467356991345475</v>
+      </c>
+      <c r="G83">
+        <v>0.07237795654505713</v>
+      </c>
+      <c r="H83">
+        <v>-0.06711328807393076</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02773429085124974</v>
+        <v>0.03724494217080324</v>
       </c>
       <c r="C84">
-        <v>-0.0277965985866572</v>
+        <v>-0.02240795109184537</v>
       </c>
       <c r="D84">
-        <v>0.03297399016398369</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03282803063642249</v>
+      </c>
+      <c r="E84">
+        <v>0.02933244784741252</v>
+      </c>
+      <c r="F84">
+        <v>0.05545243010601896</v>
+      </c>
+      <c r="G84">
+        <v>0.06680082666800707</v>
+      </c>
+      <c r="H84">
+        <v>-0.003323829329812372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1188492827139363</v>
+        <v>0.1212256019103511</v>
       </c>
       <c r="C85">
-        <v>-0.05687559659604281</v>
+        <v>-0.02957955614279385</v>
       </c>
       <c r="D85">
-        <v>0.02333258061010835</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02207619659135562</v>
+      </c>
+      <c r="E85">
+        <v>0.02382146212005406</v>
+      </c>
+      <c r="F85">
+        <v>-0.03999731297306942</v>
+      </c>
+      <c r="G85">
+        <v>0.03577219243228764</v>
+      </c>
+      <c r="H85">
+        <v>0.1536227566398196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05002706467593519</v>
+        <v>0.05796929195939079</v>
       </c>
       <c r="C86">
-        <v>-0.03094774222906304</v>
+        <v>-0.01958711755348827</v>
       </c>
       <c r="D86">
-        <v>0.02332168039483412</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02538786562463159</v>
+      </c>
+      <c r="E86">
+        <v>0.06697172012095481</v>
+      </c>
+      <c r="F86">
+        <v>-0.02529587198627693</v>
+      </c>
+      <c r="G86">
+        <v>0.02366658808079942</v>
+      </c>
+      <c r="H86">
+        <v>-0.01195803995728942</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1180045685564371</v>
+        <v>0.1220945312944375</v>
       </c>
       <c r="C87">
-        <v>-0.07237501476950625</v>
+        <v>-0.03795474989245892</v>
       </c>
       <c r="D87">
-        <v>0.07204052958411079</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07041976336648149</v>
+      </c>
+      <c r="E87">
+        <v>0.02743106038328542</v>
+      </c>
+      <c r="F87">
+        <v>-0.000450037506672236</v>
+      </c>
+      <c r="G87">
+        <v>-0.1313522803978943</v>
+      </c>
+      <c r="H87">
+        <v>-0.03907923681315967</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05236032436060422</v>
+        <v>0.06018608024936214</v>
       </c>
       <c r="C88">
-        <v>-0.02902458068494669</v>
+        <v>-0.01871789620724309</v>
       </c>
       <c r="D88">
-        <v>0.02105714046116132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0336035092951917</v>
+      </c>
+      <c r="E88">
+        <v>0.022783353043317</v>
+      </c>
+      <c r="F88">
+        <v>-0.004392711413079279</v>
+      </c>
+      <c r="G88">
+        <v>-0.00346522122607084</v>
+      </c>
+      <c r="H88">
+        <v>0.05538994120380434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08503211969992</v>
+        <v>0.09447891612795685</v>
       </c>
       <c r="C89">
-        <v>-0.07233549533000692</v>
+        <v>-0.08485723050903596</v>
       </c>
       <c r="D89">
-        <v>-0.3237242482568831</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.34695679155286</v>
+      </c>
+      <c r="E89">
+        <v>0.07370283413604103</v>
+      </c>
+      <c r="F89">
+        <v>-0.07934643410818144</v>
+      </c>
+      <c r="G89">
+        <v>0.02704544835986416</v>
+      </c>
+      <c r="H89">
+        <v>0.009361300184845467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07532242431626762</v>
+        <v>0.07937075133102137</v>
       </c>
       <c r="C90">
-        <v>-0.063580987997162</v>
+        <v>-0.07141607437016076</v>
       </c>
       <c r="D90">
-        <v>-0.3206478476983221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3062437309170292</v>
+      </c>
+      <c r="E90">
+        <v>0.06104345981109833</v>
+      </c>
+      <c r="F90">
+        <v>0.003406885548775744</v>
+      </c>
+      <c r="G90">
+        <v>0.005983736303852668</v>
+      </c>
+      <c r="H90">
+        <v>0.002450612617889052</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08575484665785268</v>
+        <v>0.08978077828257568</v>
       </c>
       <c r="C91">
-        <v>-0.05697973080504975</v>
+        <v>-0.03472945952231159</v>
       </c>
       <c r="D91">
-        <v>0.03577451839445087</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03244296063858779</v>
+      </c>
+      <c r="E91">
+        <v>0.01391228159932281</v>
+      </c>
+      <c r="F91">
+        <v>-0.004924005982742552</v>
+      </c>
+      <c r="G91">
+        <v>0.05589548163215646</v>
+      </c>
+      <c r="H91">
+        <v>0.07814013465433581</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07543068599664789</v>
+        <v>0.07917255549026966</v>
       </c>
       <c r="C92">
-        <v>-0.07487929923481947</v>
+        <v>-0.08590121747640385</v>
       </c>
       <c r="D92">
-        <v>-0.3396390071195713</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3445205613620214</v>
+      </c>
+      <c r="E92">
+        <v>0.04631516072636882</v>
+      </c>
+      <c r="F92">
+        <v>-0.03825160376078495</v>
+      </c>
+      <c r="G92">
+        <v>-0.01047332260975876</v>
+      </c>
+      <c r="H92">
+        <v>0.01695618802267899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06568678096484989</v>
+        <v>0.07569138036551866</v>
       </c>
       <c r="C93">
-        <v>-0.06729849008381925</v>
+        <v>-0.08157114502952521</v>
       </c>
       <c r="D93">
-        <v>-0.3135296760681601</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.3041312862297945</v>
+      </c>
+      <c r="E93">
+        <v>0.04017135105984374</v>
+      </c>
+      <c r="F93">
+        <v>-0.03711569104995827</v>
+      </c>
+      <c r="G93">
+        <v>-0.01587430899317459</v>
+      </c>
+      <c r="H93">
+        <v>-0.01299788176804612</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1315773252477712</v>
+        <v>0.126379996656959</v>
       </c>
       <c r="C94">
-        <v>-0.05638504741848886</v>
+        <v>-0.02138730903925795</v>
       </c>
       <c r="D94">
-        <v>0.04789837388167197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04860859890194055</v>
+      </c>
+      <c r="E94">
+        <v>-0.00472432452528814</v>
+      </c>
+      <c r="F94">
+        <v>-0.02227606409926417</v>
+      </c>
+      <c r="G94">
+        <v>0.06328667240454415</v>
+      </c>
+      <c r="H94">
+        <v>0.09678907756256441</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1176440274386071</v>
+        <v>0.125620956514284</v>
       </c>
       <c r="C95">
-        <v>-0.03013122465531757</v>
+        <v>-0.002708961074102816</v>
       </c>
       <c r="D95">
-        <v>0.06268434460910155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.07145470128373488</v>
+      </c>
+      <c r="E95">
+        <v>0.01683574004979665</v>
+      </c>
+      <c r="F95">
+        <v>-0.03725388812709841</v>
+      </c>
+      <c r="G95">
+        <v>-0.02692314149664323</v>
+      </c>
+      <c r="H95">
+        <v>-0.06013816108850809</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2204923913528995</v>
+        <v>0.2095892035487157</v>
       </c>
       <c r="C97">
-        <v>-0.05545088053977616</v>
+        <v>-0.003120783275107666</v>
       </c>
       <c r="D97">
-        <v>-0.1118602586680328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.08804242894076104</v>
+      </c>
+      <c r="E97">
+        <v>-0.3430193011155616</v>
+      </c>
+      <c r="F97">
+        <v>0.8573321225115926</v>
+      </c>
+      <c r="G97">
+        <v>-0.07438025523207002</v>
+      </c>
+      <c r="H97">
+        <v>0.01537454552511922</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2418729243705164</v>
+        <v>0.2746947453772191</v>
       </c>
       <c r="C98">
-        <v>-0.07375854383250884</v>
+        <v>-0.03359666536294013</v>
       </c>
       <c r="D98">
-        <v>0.04897726610106773</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05871949075794998</v>
+      </c>
+      <c r="E98">
+        <v>-0.1752113409056138</v>
+      </c>
+      <c r="F98">
+        <v>-0.09777645879527172</v>
+      </c>
+      <c r="G98">
+        <v>0.2167062677419187</v>
+      </c>
+      <c r="H98">
+        <v>-0.2528620805071249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4563294217010159</v>
+        <v>0.2882338838162984</v>
       </c>
       <c r="C99">
-        <v>0.8734721745079304</v>
+        <v>0.9319543289832873</v>
       </c>
       <c r="D99">
-        <v>-0.05569187190161753</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1404796279182769</v>
+      </c>
+      <c r="E99">
+        <v>0.06801673818116238</v>
+      </c>
+      <c r="F99">
+        <v>-0.0451968482014006</v>
+      </c>
+      <c r="G99">
+        <v>0.02448207668077611</v>
+      </c>
+      <c r="H99">
+        <v>0.06493196266918087</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04005463743774102</v>
+        <v>0.04844949519716876</v>
       </c>
       <c r="C101">
-        <v>-0.03128214555603756</v>
+        <v>-0.02625233967841849</v>
       </c>
       <c r="D101">
-        <v>0.004286327609321594</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.006955017279906213</v>
+      </c>
+      <c r="E101">
+        <v>0.05259816872220856</v>
+      </c>
+      <c r="F101">
+        <v>-0.0008131731521944686</v>
+      </c>
+      <c r="G101">
+        <v>0.01212353857491381</v>
+      </c>
+      <c r="H101">
+        <v>0.07691958571416595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
